--- a/Documentation/Schedules 2.0.xlsx
+++ b/Documentation/Schedules 2.0.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ezekiel.lacy\Desktop\Iceberg-Lettuce\Documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
-    <t>Day6</t>
-  </si>
-  <si>
     <t>Day 7</t>
-  </si>
-  <si>
-    <t>Day 8</t>
-  </si>
-  <si>
-    <t>Day 9</t>
   </si>
   <si>
     <t>Day 10</t>
@@ -146,24 +145,37 @@
   <si>
     <t>Finalization</t>
   </si>
+  <si>
+    <t xml:space="preserve">Day6 Alpha </t>
+  </si>
+  <si>
+    <t>Day 8 Beta</t>
+  </si>
+  <si>
+    <t>Day 9 Finish</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <sz val="11.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -173,42 +185,45 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -398,147 +413,152 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="43.14"/>
-    <col customWidth="1" min="4" max="4" width="45.0"/>
-    <col customWidth="1" min="6" max="6" width="46.57"/>
-    <col customWidth="1" min="8" max="8" width="55.14"/>
+    <col min="2" max="2" width="43.140625" customWidth="1"/>
+    <col min="4" max="4" width="45" customWidth="1"/>
+    <col min="6" max="6" width="46.5703125" customWidth="1"/>
+    <col min="8" max="8" width="55.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documentation/Schedules 2.0.xlsx
+++ b/Documentation/Schedules 2.0.xlsx
@@ -138,21 +138,21 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Work on final presentation
+    <t>Finalization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day6 Alpha </t>
+  </si>
+  <si>
+    <t>Day 8 Beta</t>
+  </si>
+  <si>
+    <t>Day 9 Finish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover manny in his absence
 Finish unity sprite implementation for chicken run game 
 </t>
-  </si>
-  <si>
-    <t>Finalization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Day6 Alpha </t>
-  </si>
-  <si>
-    <t>Day 8 Beta</t>
-  </si>
-  <si>
-    <t>Day 9 Finish</t>
   </si>
 </sst>
 </file>
@@ -426,30 +426,30 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="43.140625" customWidth="1"/>
-    <col min="4" max="4" width="45" customWidth="1"/>
-    <col min="6" max="6" width="46.5703125" customWidth="1"/>
+    <col min="2" max="2" width="109.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="70.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="55.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>1</v>
@@ -549,10 +549,10 @@
         <v>27</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>14</v>

--- a/Documentation/Schedules 2.0.xlsx
+++ b/Documentation/Schedules 2.0.xlsx
@@ -426,7 +426,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Documentation/Schedules 2.0.xlsx
+++ b/Documentation/Schedules 2.0.xlsx
@@ -74,9 +74,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Finishing putting all the sounds in unity and making it sound nice  </t>
-  </si>
-  <si>
     <t>Present</t>
   </si>
   <si>
@@ -153,6 +150,9 @@
     <t xml:space="preserve">Cover manny in his absence
 Finish unity sprite implementation for chicken run game 
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finishing putting/making all the sounds in unity and making it sound nice  </t>
   </si>
 </sst>
 </file>
@@ -425,31 +425,31 @@
   </sheetPr>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="109.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="70.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="70.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="75.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="55.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>1</v>
@@ -492,70 +492,70 @@
         <v>12</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
